--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="C20" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="64">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -32,12 +32,187 @@
   </si>
   <si>
     <t>Dynamic_TestCase</t>
+  </si>
+  <si>
+    <t>EnterprisePrepaid_Provisioning</t>
+  </si>
+  <si>
+    <t>Normalcustomer</t>
+  </si>
+  <si>
+    <t>Account_No</t>
+  </si>
+  <si>
+    <t>08514305111</t>
+  </si>
+  <si>
+    <t>Entp_AccountCreation</t>
+  </si>
+  <si>
+    <t>14-Sep-2017</t>
+  </si>
+  <si>
+    <t>ConsumerPrepaid_Provisioning</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>VFQA_Test450</t>
+  </si>
+  <si>
+    <t>ContactCreation</t>
+  </si>
+  <si>
+    <t>17-Sep-2017</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Lorenzo&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>08540868068</t>
+  </si>
+  <si>
+    <t>AccountCreation</t>
+  </si>
+  <si>
+    <t>Billing_NO</t>
+  </si>
+  <si>
+    <t>1-3X90G1Z</t>
+  </si>
+  <si>
+    <t>BillingProfileCreation</t>
+  </si>
+  <si>
+    <t>Sales_Order</t>
+  </si>
+  <si>
+    <t>1-8540868228</t>
+  </si>
+  <si>
+    <t>SalesOrder</t>
+  </si>
+  <si>
+    <t>PlanName</t>
+  </si>
+  <si>
+    <t>Prepaid Red Promotion</t>
+  </si>
+  <si>
+    <t>PlanSelection</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>97489774795</t>
+  </si>
+  <si>
+    <t>SIM_NO</t>
+  </si>
+  <si>
+    <t>8962702800901160821</t>
+  </si>
+  <si>
+    <t>VFQA_Test834</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Lupe&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>08540906008</t>
+  </si>
+  <si>
+    <t>1-3X919QL</t>
+  </si>
+  <si>
+    <t>1-8540909068</t>
+  </si>
+  <si>
+    <t>VFQA_Test167</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Dennis&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>08540928808</t>
+  </si>
+  <si>
+    <t>1-3X91QWX</t>
+  </si>
+  <si>
+    <t>Sales_OrderNO</t>
+  </si>
+  <si>
+    <t>1-8540928958</t>
+  </si>
+  <si>
+    <t>VFQA_Test621</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Burton&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>08540933348</t>
+  </si>
+  <si>
+    <t>1-3X91UKL</t>
+  </si>
+  <si>
+    <t>1-8540933697</t>
+  </si>
+  <si>
+    <t>VFQA_Test750</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Horacio&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>08540977208</t>
+  </si>
+  <si>
+    <t>1-3X92SBB</t>
+  </si>
+  <si>
+    <t>1-8540977428</t>
+  </si>
+  <si>
+    <t>97489774766</t>
+  </si>
+  <si>
+    <t>8962702800901160825</t>
+  </si>
+  <si>
+    <t>VFQA_Test985</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Emmanuel&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>08541003278</t>
+  </si>
+  <si>
+    <t>1-3X93CDJ</t>
+  </si>
+  <si>
+    <t>1-8541003428</t>
+  </si>
+  <si>
+    <t>97489774776</t>
+  </si>
+  <si>
+    <t>8962702800901160826</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,11 +570,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -422,6 +597,866 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -32,12 +32,91 @@
   </si>
   <si>
     <t>Dynamic_TestCase</t>
+  </si>
+  <si>
+    <t>ConsumerPrepaid_Provisioning</t>
+  </si>
+  <si>
+    <t>Normalcustomer</t>
+  </si>
+  <si>
+    <t>Address line1</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Francisco</t>
+  </si>
+  <si>
+    <t>ContactCreation</t>
+  </si>
+  <si>
+    <t>20-Sep-2017</t>
+  </si>
+  <si>
+    <t>Address line2</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Edgardo</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>VFQA_Test294</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Jesse</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Jonah</t>
+  </si>
+  <si>
+    <t>VFQA_Test68</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Brenton</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Emanuel</t>
+  </si>
+  <si>
+    <t>VFQA_Test521</t>
+  </si>
+  <si>
+    <t>Account_No</t>
+  </si>
+  <si>
+    <t>08552546078</t>
+  </si>
+  <si>
+    <t>AccountCreation</t>
+  </si>
+  <si>
+    <t>Billing_NO</t>
+  </si>
+  <si>
+    <t>1-3XFYQUV</t>
+  </si>
+  <si>
+    <t>BillingProfileCreation</t>
+  </si>
+  <si>
+    <t>Sales_OrderNO</t>
+  </si>
+  <si>
+    <t>1-8552546248</t>
+  </si>
+  <si>
+    <t>SalesOrder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,11 +474,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -422,6 +501,306 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="57">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -110,6 +110,81 @@
   </si>
   <si>
     <t>SalesOrder</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Manuel</t>
+  </si>
+  <si>
+    <t>26-Sep-2017</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Alfonso</t>
+  </si>
+  <si>
+    <t>VFQA_Test56</t>
+  </si>
+  <si>
+    <t>08559551708</t>
+  </si>
+  <si>
+    <t>1-3XK4WFP</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Arlie</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Luther</t>
+  </si>
+  <si>
+    <t>VFQA_Test332</t>
+  </si>
+  <si>
+    <t>08559607398</t>
+  </si>
+  <si>
+    <t>1-3XK63EN</t>
+  </si>
+  <si>
+    <t>1-8559607548</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Cliff</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Emery</t>
+  </si>
+  <si>
+    <t>VFQA_Test602</t>
+  </si>
+  <si>
+    <t>08559607638</t>
+  </si>
+  <si>
+    <t>1-3XK63LB</t>
+  </si>
+  <si>
+    <t>1-8559607788</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Mauricio</t>
+  </si>
+  <si>
+    <t>02-Oct-2017</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>VFQA_Test651</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Donald</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Chad</t>
+  </si>
+  <si>
+    <t>VFQA_Test899</t>
   </si>
 </sst>
 </file>
@@ -801,6 +876,566 @@
         <v>11</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>VFQA_Test843</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Elroy</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Hugh</t>
+  </si>
+  <si>
+    <t>VFQA_Test751</t>
   </si>
 </sst>
 </file>
@@ -625,6 +634,86 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -37,52 +37,34 @@
     <t>ConsumerPrepaid_Provisioning</t>
   </si>
   <si>
-    <t>Normalcustomer</t>
+    <t>Individualcustomer</t>
   </si>
   <si>
     <t>Address line1</t>
   </si>
   <si>
-    <t>VFQA_Test_Gerardo</t>
+    <t>VFQA_Test_Erik</t>
   </si>
   <si>
     <t>ContactCreation</t>
   </si>
   <si>
-    <t>02-Oct-2017</t>
+    <t>05-Oct-2017</t>
   </si>
   <si>
     <t>Address line2</t>
   </si>
   <si>
-    <t>VFQA_Test_Jayson</t>
+    <t>VFQA_Test_Ed</t>
   </si>
   <si>
     <t>LastName</t>
   </si>
   <si>
-    <t>VFQA_Test937</t>
+    <t>VFQA_Test956</t>
   </si>
   <si>
     <t>Address</t>
-  </si>
-  <si>
-    <t>VFQA_Test_Carter</t>
-  </si>
-  <si>
-    <t>VFQA_Test_Lorenzo</t>
-  </si>
-  <si>
-    <t>VFQA_Test843</t>
-  </si>
-  <si>
-    <t>VFQA_Test_Elroy</t>
-  </si>
-  <si>
-    <t>VFQA_Test_Hugh</t>
-  </si>
-  <si>
-    <t>VFQA_Test751</t>
   </si>
 </sst>
 </file>
@@ -442,7 +424,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,166 +536,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="53">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -65,6 +65,114 @@
   </si>
   <si>
     <t>Address</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Marcus</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Isaac</t>
+  </si>
+  <si>
+    <t>VFQA_Test526</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Lenny</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Cory</t>
+  </si>
+  <si>
+    <t>VFQA_Test837</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Dana</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Chet</t>
+  </si>
+  <si>
+    <t>VFQA_Test414</t>
+  </si>
+  <si>
+    <t>Account_No</t>
+  </si>
+  <si>
+    <t>08848171138</t>
+  </si>
+  <si>
+    <t>AccountCreation</t>
+  </si>
+  <si>
+    <t>Billing_NO</t>
+  </si>
+  <si>
+    <t>1-42BZ0M3</t>
+  </si>
+  <si>
+    <t>BillingProfileCreation</t>
+  </si>
+  <si>
+    <t>Sales_OrderNO</t>
+  </si>
+  <si>
+    <t>1-8848188638</t>
+  </si>
+  <si>
+    <t>SalesOrder</t>
+  </si>
+  <si>
+    <t>PlanName</t>
+  </si>
+  <si>
+    <t>Prepaid Red Promotion</t>
+  </si>
+  <si>
+    <t>PlanSelection</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>97478152356</t>
+  </si>
+  <si>
+    <t>SIM_NO</t>
+  </si>
+  <si>
+    <t>8962702800901163356</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Darnell</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Lonny</t>
+  </si>
+  <si>
+    <t>VFQA_Test128</t>
+  </si>
+  <si>
+    <t>08848322508</t>
+  </si>
+  <si>
+    <t>1-42C29FN</t>
+  </si>
+  <si>
+    <t>1-8848322858</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Isaiah</t>
+  </si>
+  <si>
+    <t>08-Oct-2017</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Harland</t>
+  </si>
+  <si>
+    <t>VFQA_Test534</t>
+  </si>
+  <si>
+    <t>08880729498</t>
   </si>
 </sst>
 </file>
@@ -536,6 +644,606 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD44"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -32,12 +32,37 @@
   </si>
   <si>
     <t>Dynamic_TestCase</t>
+  </si>
+  <si>
+    <t>Modify</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid</t>
+  </si>
+  <si>
+    <t>Order_no</t>
+  </si>
+  <si>
+    <t>1-9048227901</t>
+  </si>
+  <si>
+    <t>23-Oct-2017</t>
+  </si>
+  <si>
+    <t>Order_Creation_Date</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>1-9049159041</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,11 +420,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -420,6 +445,86 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="40">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -56,6 +56,84 @@
   </si>
   <si>
     <t>1-9049159041</t>
+  </si>
+  <si>
+    <t>1-9050354496</t>
+  </si>
+  <si>
+    <t>1-9050776436</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_Provisioning</t>
+  </si>
+  <si>
+    <t>Individualcustomer</t>
+  </si>
+  <si>
+    <t>Address line1</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Carol</t>
+  </si>
+  <si>
+    <t>ContactCreation</t>
+  </si>
+  <si>
+    <t>Address line2</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Lewis</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>VFQA_Test720</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Account_No</t>
+  </si>
+  <si>
+    <t>09051080548</t>
+  </si>
+  <si>
+    <t>AccountCreation</t>
+  </si>
+  <si>
+    <t>Billing_NO</t>
+  </si>
+  <si>
+    <t>1-45OS2IL</t>
+  </si>
+  <si>
+    <t>BillingProfileCreation</t>
+  </si>
+  <si>
+    <t>Sales_OrderNO</t>
+  </si>
+  <si>
+    <t>1-9051080698</t>
+  </si>
+  <si>
+    <t>SalesOrder</t>
+  </si>
+  <si>
+    <t>23-10-2017</t>
+  </si>
+  <si>
+    <t>VFQA_Test361</t>
+  </si>
+  <si>
+    <t>09051198608</t>
+  </si>
+  <si>
+    <t>1-45OULMB</t>
+  </si>
+  <si>
+    <t>1-9051198798</t>
   </si>
 </sst>
 </file>
@@ -527,6 +605,326 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="44">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>1-9051198798</t>
+  </si>
+  <si>
+    <t>VFQA_Test450</t>
+  </si>
+  <si>
+    <t>09051411868</t>
+  </si>
+  <si>
+    <t>1-45OZ65X</t>
+  </si>
+  <si>
+    <t>1-9051412048</t>
   </si>
 </sst>
 </file>
@@ -925,6 +937,126 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="55">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -146,6 +146,39 @@
   </si>
   <si>
     <t>1-9051412048</t>
+  </si>
+  <si>
+    <t>VFQA_Test520</t>
+  </si>
+  <si>
+    <t>09052085908</t>
+  </si>
+  <si>
+    <t>1-45PDMA3</t>
+  </si>
+  <si>
+    <t>1-9052192768</t>
+  </si>
+  <si>
+    <t>PlanName</t>
+  </si>
+  <si>
+    <t>Postpaid Red 250 Promotion</t>
+  </si>
+  <si>
+    <t>PlanSelection</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>97478152925</t>
+  </si>
+  <si>
+    <t>SIM_NO</t>
+  </si>
+  <si>
+    <t>8962702800901163925</t>
   </si>
 </sst>
 </file>
@@ -1057,6 +1090,186 @@
         <v>10</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="66">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -179,6 +179,39 @@
   </si>
   <si>
     <t>8962702800901163925</t>
+  </si>
+  <si>
+    <t>VFQA_Test400</t>
+  </si>
+  <si>
+    <t>09053359398</t>
+  </si>
+  <si>
+    <t>1-45Q4WVZ</t>
+  </si>
+  <si>
+    <t>1-9053359528</t>
+  </si>
+  <si>
+    <t>VFQA_Test870</t>
+  </si>
+  <si>
+    <t>09053430358</t>
+  </si>
+  <si>
+    <t>1-45Q6FN3</t>
+  </si>
+  <si>
+    <t>1-9053430488</t>
+  </si>
+  <si>
+    <t>97478152926</t>
+  </si>
+  <si>
+    <t>8962702800901163926</t>
+  </si>
+  <si>
+    <t>VFQA_Test992</t>
   </si>
 </sst>
 </file>
@@ -1270,6 +1303,346 @@
         <v>10</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="68">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>VFQA_Test992</t>
+  </si>
+  <si>
+    <t>1-9060050196</t>
+  </si>
+  <si>
+    <t>24-Oct-2017</t>
   </si>
 </sst>
 </file>
@@ -1643,6 +1649,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="76">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -218,6 +218,30 @@
   </si>
   <si>
     <t>24-Oct-2017</t>
+  </si>
+  <si>
+    <t>VFQA_Test409</t>
+  </si>
+  <si>
+    <t>09060529088</t>
+  </si>
+  <si>
+    <t>1-45UEL21</t>
+  </si>
+  <si>
+    <t>1-9060529218</t>
+  </si>
+  <si>
+    <t>24-10-2017</t>
+  </si>
+  <si>
+    <t>97478152927</t>
+  </si>
+  <si>
+    <t>8962702800901163927</t>
+  </si>
+  <si>
+    <t>1-9061363476</t>
   </si>
 </sst>
 </file>
@@ -1669,6 +1693,226 @@
         <v>67</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -74,6 +74,27 @@
   </si>
   <si>
     <t>VFQA_Test_Carol</t>
+  </si>
+  <si>
+    <t>VFQA_Test408</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Deangelo</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Abram</t>
+  </si>
+  <si>
+    <t>VFQA_Test155</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Alvaro</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>VFQA_Test830</t>
   </si>
 </sst>
 </file>
@@ -585,6 +606,206 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="136">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -95,6 +95,333 @@
   </si>
   <si>
     <t>VFQA_Test830</t>
+  </si>
+  <si>
+    <t>VFQA_Test261</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>VFQA_Test995</t>
+  </si>
+  <si>
+    <t>Account_No</t>
+  </si>
+  <si>
+    <t>53597400198</t>
+  </si>
+  <si>
+    <t>AccountCreation</t>
+  </si>
+  <si>
+    <t>Billing_NO</t>
+  </si>
+  <si>
+    <t>1-OMEIAQN</t>
+  </si>
+  <si>
+    <t>BillingProfileCreation</t>
+  </si>
+  <si>
+    <t>Sales_OrderNO</t>
+  </si>
+  <si>
+    <t>1-53597400326</t>
+  </si>
+  <si>
+    <t>SalesOrder</t>
+  </si>
+  <si>
+    <t>Order_Creation_Date</t>
+  </si>
+  <si>
+    <t>25-10-2017</t>
+  </si>
+  <si>
+    <t>VFQA_Test879</t>
+  </si>
+  <si>
+    <t>53578086438</t>
+  </si>
+  <si>
+    <t>1-OM30C5B</t>
+  </si>
+  <si>
+    <t>1-53578086566</t>
+  </si>
+  <si>
+    <t>VFQA_Test351</t>
+  </si>
+  <si>
+    <t>53597071228</t>
+  </si>
+  <si>
+    <t>1-OMEB8WL</t>
+  </si>
+  <si>
+    <t>1-53597071356</t>
+  </si>
+  <si>
+    <t>PlanName</t>
+  </si>
+  <si>
+    <t>Postpaid Red 350 Promotion</t>
+  </si>
+  <si>
+    <t>PlanSelection</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>97470345208</t>
+  </si>
+  <si>
+    <t>SIM_NO</t>
+  </si>
+  <si>
+    <t>8942702111303537287</t>
+  </si>
+  <si>
+    <t>VFQA_Test134</t>
+  </si>
+  <si>
+    <t>53596006648</t>
+  </si>
+  <si>
+    <t>1-OMDOFGX</t>
+  </si>
+  <si>
+    <t>1-53596006776</t>
+  </si>
+  <si>
+    <t>97470346502</t>
+  </si>
+  <si>
+    <t>8942702111303537642</t>
+  </si>
+  <si>
+    <t>VFQA_Test127</t>
+  </si>
+  <si>
+    <t>26-Oct-2017</t>
+  </si>
+  <si>
+    <t>09085252348</t>
+  </si>
+  <si>
+    <t>1-4694HN9</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Guadalupe</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Melvin</t>
+  </si>
+  <si>
+    <t>VFQA_Test702</t>
+  </si>
+  <si>
+    <t>09085252558</t>
+  </si>
+  <si>
+    <t>1-4694HTW</t>
+  </si>
+  <si>
+    <t>1-9085252680</t>
+  </si>
+  <si>
+    <t>26-10-2017</t>
+  </si>
+  <si>
+    <t>VFQA_Test240</t>
+  </si>
+  <si>
+    <t>09085252878</t>
+  </si>
+  <si>
+    <t>1-4694I29</t>
+  </si>
+  <si>
+    <t>1-9085253006</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Landon</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Leonard</t>
+  </si>
+  <si>
+    <t>VFQA_Test23</t>
+  </si>
+  <si>
+    <t>09085253098</t>
+  </si>
+  <si>
+    <t>1-4694I8W</t>
+  </si>
+  <si>
+    <t>1-9085253220</t>
+  </si>
+  <si>
+    <t>VFQA_Test504</t>
+  </si>
+  <si>
+    <t>09085372428</t>
+  </si>
+  <si>
+    <t>1-46972AT</t>
+  </si>
+  <si>
+    <t>VFQA_Test292</t>
+  </si>
+  <si>
+    <t>09085372648</t>
+  </si>
+  <si>
+    <t>1-46972GX</t>
+  </si>
+  <si>
+    <t>1-9085372766</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Arnoldo</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Don</t>
+  </si>
+  <si>
+    <t>VFQA_Test485</t>
+  </si>
+  <si>
+    <t>09085372858</t>
+  </si>
+  <si>
+    <t>1-46972NK</t>
+  </si>
+  <si>
+    <t>1-9085372980</t>
+  </si>
+  <si>
+    <t>VFQA_Test606</t>
+  </si>
+  <si>
+    <t>09087289098</t>
+  </si>
+  <si>
+    <t>1-46AC57N</t>
+  </si>
+  <si>
+    <t>VFQA_Test868</t>
+  </si>
+  <si>
+    <t>09087289358</t>
+  </si>
+  <si>
+    <t>1-46AC5EV</t>
+  </si>
+  <si>
+    <t>NewCustomer</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Darwin</t>
+  </si>
+  <si>
+    <t>28-Oct-2017</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Geoffrey</t>
+  </si>
+  <si>
+    <t>VFQA_Test838</t>
+  </si>
+  <si>
+    <t>09111648388</t>
+  </si>
+  <si>
+    <t>1-46OU8ZE</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Glen</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Jay</t>
+  </si>
+  <si>
+    <t>VFQA_Test105</t>
+  </si>
+  <si>
+    <t>09111648608</t>
+  </si>
+  <si>
+    <t>1-46OU94P</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Jonah</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Coy</t>
+  </si>
+  <si>
+    <t>VFQA_Test236</t>
+  </si>
+  <si>
+    <t>09111648848</t>
+  </si>
+  <si>
+    <t>1-46OU9C6</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Dennis</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Ambrose</t>
+  </si>
+  <si>
+    <t>VFQA_Test661</t>
+  </si>
+  <si>
+    <t>09111649068</t>
+  </si>
+  <si>
+    <t>1-46OU9IA</t>
+  </si>
+  <si>
+    <t>1-9111649190</t>
+  </si>
+  <si>
+    <t>28-10-2017</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Kareem</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Bobby</t>
+  </si>
+  <si>
+    <t>VFQA_Test426</t>
+  </si>
+  <si>
+    <t>09111945388</t>
+  </si>
+  <si>
+    <t>1-46P0M5E</t>
+  </si>
+  <si>
+    <t>1-9111945510</t>
+  </si>
+  <si>
+    <t>VFQA_Test641</t>
+  </si>
+  <si>
+    <t>09111946288</t>
+  </si>
+  <si>
+    <t>1-46P1VKP</t>
+  </si>
+  <si>
+    <t>1-9112004406</t>
   </si>
 </sst>
 </file>
@@ -806,6 +1133,2486 @@
         <v>11</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" t="s">
+        <v>93</v>
+      </c>
+      <c r="E90" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" t="s">
+        <v>94</v>
+      </c>
+      <c r="E91" t="s">
+        <v>35</v>
+      </c>
+      <c r="F91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>96</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" t="s">
+        <v>97</v>
+      </c>
+      <c r="E96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" t="s">
+        <v>98</v>
+      </c>
+      <c r="E97" t="s">
+        <v>35</v>
+      </c>
+      <c r="F97" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>99</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" t="s">
+        <v>100</v>
+      </c>
+      <c r="E100" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101" t="s">
+        <v>35</v>
+      </c>
+      <c r="F101" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>106</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" t="s">
+        <v>103</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" t="s">
+        <v>107</v>
+      </c>
+      <c r="E106" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>102</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" t="s">
+        <v>108</v>
+      </c>
+      <c r="E107" t="s">
+        <v>35</v>
+      </c>
+      <c r="F107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>102</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>109</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" t="s">
+        <v>110</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>102</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>111</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D112" t="s">
+        <v>112</v>
+      </c>
+      <c r="E112" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>102</v>
+      </c>
+      <c r="C113" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" t="s">
+        <v>113</v>
+      </c>
+      <c r="E113" t="s">
+        <v>35</v>
+      </c>
+      <c r="F113" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>114</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>102</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>115</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>114</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" t="s">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>32</v>
+      </c>
+      <c r="F118" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>102</v>
+      </c>
+      <c r="C119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" t="s">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>102</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>102</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>102</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>121</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" t="s">
+        <v>102</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>119</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>102</v>
+      </c>
+      <c r="C124" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" t="s">
+        <v>122</v>
+      </c>
+      <c r="E124" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s">
+        <v>102</v>
+      </c>
+      <c r="C125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" t="s">
+        <v>123</v>
+      </c>
+      <c r="E125" t="s">
+        <v>35</v>
+      </c>
+      <c r="F125" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>102</v>
+      </c>
+      <c r="C126" t="s">
+        <v>36</v>
+      </c>
+      <c r="D126" t="s">
+        <v>124</v>
+      </c>
+      <c r="E126" t="s">
+        <v>38</v>
+      </c>
+      <c r="F126" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>102</v>
+      </c>
+      <c r="C127" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" t="s">
+        <v>125</v>
+      </c>
+      <c r="E127" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>102</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>126</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>102</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>127</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>102</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" t="s">
+        <v>128</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>126</v>
+      </c>
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>102</v>
+      </c>
+      <c r="C132" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" t="s">
+        <v>129</v>
+      </c>
+      <c r="E132" t="s">
+        <v>32</v>
+      </c>
+      <c r="F132" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>102</v>
+      </c>
+      <c r="C133" t="s">
+        <v>33</v>
+      </c>
+      <c r="D133" t="s">
+        <v>130</v>
+      </c>
+      <c r="E133" t="s">
+        <v>35</v>
+      </c>
+      <c r="F133" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>102</v>
+      </c>
+      <c r="C134" t="s">
+        <v>36</v>
+      </c>
+      <c r="D134" t="s">
+        <v>131</v>
+      </c>
+      <c r="E134" t="s">
+        <v>38</v>
+      </c>
+      <c r="F134" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" t="s">
+        <v>102</v>
+      </c>
+      <c r="C135" t="s">
+        <v>39</v>
+      </c>
+      <c r="D135" t="s">
+        <v>125</v>
+      </c>
+      <c r="E135" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>17</v>
+      </c>
+      <c r="B136" t="s">
+        <v>102</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s">
+        <v>132</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" t="s">
+        <v>102</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" t="s">
+        <v>102</v>
+      </c>
+      <c r="C138" t="s">
+        <v>30</v>
+      </c>
+      <c r="D138" t="s">
+        <v>133</v>
+      </c>
+      <c r="E138" t="s">
+        <v>32</v>
+      </c>
+      <c r="F138" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" t="s">
+        <v>102</v>
+      </c>
+      <c r="C139" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139" t="s">
+        <v>134</v>
+      </c>
+      <c r="E139" t="s">
+        <v>35</v>
+      </c>
+      <c r="F139" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" t="s">
+        <v>102</v>
+      </c>
+      <c r="C140" t="s">
+        <v>36</v>
+      </c>
+      <c r="D140" t="s">
+        <v>135</v>
+      </c>
+      <c r="E140" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" t="s">
+        <v>102</v>
+      </c>
+      <c r="C141" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" t="s">
+        <v>125</v>
+      </c>
+      <c r="E141" t="s">
+        <v>38</v>
+      </c>
+      <c r="F141" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Keyword</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
   <si>
     <t>Dynamic_UseCase</t>
@@ -387,27 +384,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -418,9 +415,6 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD34"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -29,6 +29,81 @@
   </si>
   <si>
     <t>Dynamic_TestCase</t>
+  </si>
+  <si>
+    <t>EnterprisePrepaid_Provisioning</t>
+  </si>
+  <si>
+    <t>NewCustomer</t>
+  </si>
+  <si>
+    <t>Account_No</t>
+  </si>
+  <si>
+    <t>Entp_AccountCreation</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Entp_ContactCreation</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Kar#1126194</t>
+  </si>
+  <si>
+    <t>Billing_NO</t>
+  </si>
+  <si>
+    <t>BillingProfileCreation</t>
+  </si>
+  <si>
+    <t>09214461761</t>
+  </si>
+  <si>
+    <t>VFQA_Test830</t>
+  </si>
+  <si>
+    <t>1-48E2QGH</t>
+  </si>
+  <si>
+    <t>Sales_OrderNO</t>
+  </si>
+  <si>
+    <t>1-9214514424</t>
+  </si>
+  <si>
+    <t>SalesOrder</t>
+  </si>
+  <si>
+    <t>Order_Creation_Date</t>
+  </si>
+  <si>
+    <t>6-11-2017</t>
+  </si>
+  <si>
+    <t>PlanName</t>
+  </si>
+  <si>
+    <t>Prepaid Red Promotion</t>
+  </si>
+  <si>
+    <t>PlanSelection</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>97478152943</t>
+  </si>
+  <si>
+    <t>SIM_NO</t>
+  </si>
+  <si>
+    <t>8962702800901163943</t>
   </si>
 </sst>
 </file>
@@ -384,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,6 +491,159 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -104,12 +104,19 @@
   </si>
   <si>
     <t>8962702800901163943</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid_Provisioning</t>
+  </si>
+  <si>
+    <t>ExtCustomer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,11 +474,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -644,6 +651,40 @@
         <v>25</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="7290"/>
+    <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="7290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic_DataStore" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="34">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -110,13 +111,18 @@
   </si>
   <si>
     <t>ExtCustomer</t>
+  </si>
+  <si>
+    <t>1-48EPNAT</t>
+  </si>
+  <si>
+    <t>1-9215569985</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,19 +472,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -651,7 +657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -668,7 +674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -679,14 +685,284 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="7290" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic_DataStore" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -65,18 +64,9 @@
     <t>09214461761</t>
   </si>
   <si>
-    <t>VFQA_Test830</t>
-  </si>
-  <si>
-    <t>1-48E2QGH</t>
-  </si>
-  <si>
     <t>Sales_OrderNO</t>
   </si>
   <si>
-    <t>1-9214514424</t>
-  </si>
-  <si>
     <t>SalesOrder</t>
   </si>
   <si>
@@ -98,15 +88,9 @@
     <t>MSISDN</t>
   </si>
   <si>
-    <t>97478152943</t>
-  </si>
-  <si>
     <t>SIM_NO</t>
   </si>
   <si>
-    <t>8962702800901163943</t>
-  </si>
-  <si>
     <t>EnterprisePostpaid_Provisioning</t>
   </si>
   <si>
@@ -117,12 +101,52 @@
   </si>
   <si>
     <t>1-9215569985</t>
+  </si>
+  <si>
+    <t>09222369021</t>
+  </si>
+  <si>
+    <t>VFQA_Test847</t>
+  </si>
+  <si>
+    <t>1-48IUQ5L</t>
+  </si>
+  <si>
+    <t>1-9222525424</t>
+  </si>
+  <si>
+    <t>7-11-2017</t>
+  </si>
+  <si>
+    <t>97478152947</t>
+  </si>
+  <si>
+    <t>8962702800901163947</t>
+  </si>
+  <si>
+    <t>1-48IX1WR</t>
+  </si>
+  <si>
+    <t>1-9222633995</t>
+  </si>
+  <si>
+    <t>Postpaid Professional Promotion</t>
+  </si>
+  <si>
+    <t>97478152944</t>
+  </si>
+  <si>
+    <t>8962702800901163944</t>
+  </si>
+  <si>
+    <t>1-48J1TJX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,17 +498,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -515,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -532,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -566,7 +590,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -580,13 +604,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,13 +621,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,13 +638,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,13 +655,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,27 +672,27 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -676,16 +700,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -693,276 +717,91 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="E14" t="s">
-        <v>20</v>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -140,6 +140,33 @@
   </si>
   <si>
     <t>1-48J1TJX</t>
+  </si>
+  <si>
+    <t>1-48JN2TD</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Postpaid Standard Promotion</t>
+  </si>
+  <si>
+    <t>97478152945</t>
+  </si>
+  <si>
+    <t>8962702800901163945</t>
+  </si>
+  <si>
+    <t>Modify</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid</t>
+  </si>
+  <si>
+    <t>Order_no</t>
+  </si>
+  <si>
+    <t>1-9224023471</t>
   </si>
 </sst>
 </file>
@@ -709,7 +736,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -726,7 +753,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -760,7 +787,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -777,7 +804,7 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
@@ -794,10 +821,27 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -167,6 +167,66 @@
   </si>
   <si>
     <t>1-9224023471</t>
+  </si>
+  <si>
+    <t>1-9224036411</t>
+  </si>
+  <si>
+    <t>1-9224169001</t>
+  </si>
+  <si>
+    <t>1-9224209473</t>
+  </si>
+  <si>
+    <t>Postpaid Basic Promotion</t>
+  </si>
+  <si>
+    <t>97478152946</t>
+  </si>
+  <si>
+    <t>8962702800901163946</t>
+  </si>
+  <si>
+    <t>Plan_UpgradeDowngrade</t>
+  </si>
+  <si>
+    <t>1-9224459205</t>
+  </si>
+  <si>
+    <t>09224884961</t>
+  </si>
+  <si>
+    <t>VFQA_Test418</t>
+  </si>
+  <si>
+    <t>1-48KHZLH</t>
+  </si>
+  <si>
+    <t>1-9225290364</t>
+  </si>
+  <si>
+    <t>97478152949</t>
+  </si>
+  <si>
+    <t>8962702800901163949</t>
+  </si>
+  <si>
+    <t>Enterprise_Migration</t>
+  </si>
+  <si>
+    <t>Prepaid_To_Postpaid</t>
+  </si>
+  <si>
+    <t>1-48KLBPE</t>
+  </si>
+  <si>
+    <t>1-9225446138</t>
+  </si>
+  <si>
+    <t>1-48KMX42</t>
+  </si>
+  <si>
+    <t>1-9225520635</t>
   </si>
 </sst>
 </file>
@@ -566,7 +626,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -583,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -617,7 +677,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -634,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -685,7 +745,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -702,7 +762,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -719,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -736,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -753,7 +813,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -787,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -804,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
@@ -821,7 +881,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
@@ -838,10 +898,61 @@
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -29,12 +29,103 @@
   </si>
   <si>
     <t>Dynamic_TestCase</t>
+  </si>
+  <si>
+    <t>NewCustomer</t>
+  </si>
+  <si>
+    <t>Account_No</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Billing_NO</t>
+  </si>
+  <si>
+    <t>BillingProfileCreation</t>
+  </si>
+  <si>
+    <t>Sales_OrderNO</t>
+  </si>
+  <si>
+    <t>SalesOrder</t>
+  </si>
+  <si>
+    <t>Order_Creation_Date</t>
+  </si>
+  <si>
+    <t>PlanName</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_Provisioning</t>
+  </si>
+  <si>
+    <t>ContactCreation</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>AccountCreation</t>
+  </si>
+  <si>
+    <t>20-11-2017</t>
+  </si>
+  <si>
+    <t>VFQA_Test456</t>
+  </si>
+  <si>
+    <t>55076908498</t>
+  </si>
+  <si>
+    <t>1-PAVDANF</t>
+  </si>
+  <si>
+    <t>1-55076908614</t>
+  </si>
+  <si>
+    <t>Postpaid Red 750 Promotion</t>
+  </si>
+  <si>
+    <t>PlanSelection</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>97470200847</t>
+  </si>
+  <si>
+    <t>SIM_NO</t>
+  </si>
+  <si>
+    <t>8942702111303548284</t>
+  </si>
+  <si>
+    <t>Plan_UpgradeDowngrade</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid</t>
+  </si>
+  <si>
+    <t>Order_no</t>
+  </si>
+  <si>
+    <t>1-55078246921</t>
+  </si>
+  <si>
+    <t>1-55078491571</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,19 +475,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -416,6 +507,176 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -30,102 +30,11 @@
   <si>
     <t>Dynamic_TestCase</t>
   </si>
-  <si>
-    <t>NewCustomer</t>
-  </si>
-  <si>
-    <t>Account_No</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Billing_NO</t>
-  </si>
-  <si>
-    <t>BillingProfileCreation</t>
-  </si>
-  <si>
-    <t>Sales_OrderNO</t>
-  </si>
-  <si>
-    <t>SalesOrder</t>
-  </si>
-  <si>
-    <t>Order_Creation_Date</t>
-  </si>
-  <si>
-    <t>PlanName</t>
-  </si>
-  <si>
-    <t>ConsumerPostpaid_Provisioning</t>
-  </si>
-  <si>
-    <t>ContactCreation</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>AccountCreation</t>
-  </si>
-  <si>
-    <t>20-11-2017</t>
-  </si>
-  <si>
-    <t>VFQA_Test456</t>
-  </si>
-  <si>
-    <t>55076908498</t>
-  </si>
-  <si>
-    <t>1-PAVDANF</t>
-  </si>
-  <si>
-    <t>1-55076908614</t>
-  </si>
-  <si>
-    <t>Postpaid Red 750 Promotion</t>
-  </si>
-  <si>
-    <t>PlanSelection</t>
-  </si>
-  <si>
-    <t>MSISDN</t>
-  </si>
-  <si>
-    <t>97470200847</t>
-  </si>
-  <si>
-    <t>SIM_NO</t>
-  </si>
-  <si>
-    <t>8942702111303548284</t>
-  </si>
-  <si>
-    <t>Plan_UpgradeDowngrade</t>
-  </si>
-  <si>
-    <t>ConsumerPostpaid</t>
-  </si>
-  <si>
-    <t>Order_no</t>
-  </si>
-  <si>
-    <t>1-55078246921</t>
-  </si>
-  <si>
-    <t>1-55078491571</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,19 +384,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -507,176 +416,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -29,12 +29,52 @@
   </si>
   <si>
     <t>Dynamic_TestCase</t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+  <si>
+    <t>AddonDiscount</t>
+  </si>
+  <si>
+    <t>Order_no</t>
+  </si>
+  <si>
+    <t>1-9664274981</t>
+  </si>
+  <si>
+    <t>TroubleTicket</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>TroubleTicket_No</t>
+  </si>
+  <si>
+    <t>1-9578058951</t>
+  </si>
+  <si>
+    <t>1-9664385618</t>
+  </si>
+  <si>
+    <t>1-9664385831</t>
+  </si>
+  <si>
+    <t>Disconnection</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid</t>
+  </si>
+  <si>
+    <t>1-9664698100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,11 +432,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -414,6 +454,57 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -68,6 +68,66 @@
   </si>
   <si>
     <t>1-9664698100</t>
+  </si>
+  <si>
+    <t>TransferOfService</t>
+  </si>
+  <si>
+    <t>NewAccount</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>VFQA_Test885</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Account_No</t>
+  </si>
+  <si>
+    <t>09775102230</t>
+  </si>
+  <si>
+    <t>Billing_NO</t>
+  </si>
+  <si>
+    <t>1-4HNUXYC</t>
+  </si>
+  <si>
+    <t>VFQA_Test585</t>
+  </si>
+  <si>
+    <t>09775308388</t>
+  </si>
+  <si>
+    <t>1-4HNZ83G</t>
+  </si>
+  <si>
+    <t>ExistingAccount</t>
+  </si>
+  <si>
+    <t>1-9775638701</t>
+  </si>
+  <si>
+    <t>1-9784837811</t>
+  </si>
+  <si>
+    <t>VFQA_Test159</t>
+  </si>
+  <si>
+    <t>09785575920</t>
+  </si>
+  <si>
+    <t>1-4HU2UXM</t>
+  </si>
+  <si>
+    <t>1-9785576450</t>
   </si>
 </sst>
 </file>
@@ -507,6 +567,142 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
